--- a/Описание.xlsx
+++ b/Описание.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive - ФГОБУ ВО Финансовый университет при Правительстве РФ\Рабочий стол\Ксюша\Курсовая 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive - ФГОБУ ВО Финансовый университет при Правительстве РФ\Рабочий стол\Ксюша\Курсовая 2022\Kursovaya2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC2D880-7979-46F0-B8F1-8F3D2A76FEB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401FEB86-878F-49F6-A372-51CCBF2F02C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -157,56 +157,35 @@
 (на тестовой выборке)</t>
   </si>
   <si>
-    <t>Время работы</t>
-  </si>
-  <si>
     <t>LogisticRegression</t>
   </si>
   <si>
-    <t>2.19 s</t>
-  </si>
-  <si>
-    <t>572 ms</t>
-  </si>
-  <si>
     <t>DecisionTreeClassifier</t>
   </si>
   <si>
     <t xml:space="preserve">KNeighborsClassifier </t>
   </si>
   <si>
-    <t>734 ms</t>
-  </si>
-  <si>
     <t xml:space="preserve">GradientBoostingClassifier </t>
   </si>
   <si>
-    <t>3.11 s</t>
-  </si>
-  <si>
     <t>AdaBoostClassifier</t>
   </si>
   <si>
     <t>SVM</t>
   </si>
   <si>
-    <t>2.59 s</t>
-  </si>
-  <si>
-    <t>12.7 s</t>
-  </si>
-  <si>
-    <t>959 ms</t>
-  </si>
-  <si>
     <t xml:space="preserve">RandomForestClassifier </t>
+  </si>
+  <si>
+    <t>Recall</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,36 +201,22 @@
       <charset val="204"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
-      <color rgb="FF111111"/>
+      <color rgb="FF002060"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF212529"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF002060"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,8 +241,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCECFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -300,11 +277,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF002060"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF002060"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF002060"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF002060"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -330,31 +389,52 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -363,6 +443,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCECFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -395,31 +480,18 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="002060"/>
                 </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1600">
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>Сравнение</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1600" baseline="0">
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t> моделей</a:t>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Сравнение моделей</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -437,16 +509,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:srgbClr val="002060"/>
               </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="ru-RU"/>
@@ -455,42 +524,42 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16564512672496917"/>
+          <c:y val="0.14569647617332296"/>
+          <c:w val="0.80305644787616881"/>
+          <c:h val="0.73704838576687071"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист2!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cross-Validation</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="C00000"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -498,12 +567,18 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.3660325986057747E-2"/>
+                  <c:y val="0.15540506145218932"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AF178830-8EEB-4668-84F2-D853854E2757}" type="CELLRANGE">
+                    <a:fld id="{E9F723FC-C473-459A-9205-AAD20E0C6C10}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
@@ -512,7 +587,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{92D9C56A-F32C-437F-8C73-6EF8B98E2303}" type="XVALUE">
+                    <a:fld id="{81E03448-C1E6-400B-B613-565510724A38}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ X]</a:t>
@@ -521,7 +596,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{9A9807F8-F793-472E-9AAA-11D5B3E522FD}" type="YVALUE">
+                    <a:fld id="{38C5E831-8FB9-43B8-A685-8911C7938753}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ Y]</a:t>
@@ -539,7 +614,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -549,12 +623,18 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.15025211834588864"/>
+                  <c:y val="-0.11407662681710456"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EDE6CB69-C58B-4E44-852B-B8F69CA0514E}" type="CELLRANGE">
+                    <a:fld id="{6D4998C2-BB10-4301-9877-13EA4AC6D348}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
@@ -563,7 +643,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{1A2D61F7-CB6A-49A8-9E66-C1B9C60D0D8A}" type="XVALUE">
+                    <a:fld id="{1C0002B5-C9A9-4E5B-ADE4-81F736CD41AB}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ X]</a:t>
@@ -572,7 +652,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{CD2BBBC3-E842-44BB-B307-13E0A398E9A7}" type="YVALUE">
+                    <a:fld id="{C92A9A0A-9E06-4B8C-8A49-7F51AFBC322D}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ Y]</a:t>
@@ -591,8 +671,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.24069832759405144"/>
-                      <c:h val="9.782558609985996E-2"/>
+                      <c:w val="0.22614023941523587"/>
+                      <c:h val="9.5350553505535035E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
@@ -607,8 +687,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.8252184120123662E-3"/>
-                  <c:y val="-6.9172915949815769E-2"/>
+                  <c:x val="-0.20121339543643904"/>
+                  <c:y val="-0.1082266536521371"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -616,7 +696,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D2EA834A-ED8B-42B4-8D05-DB391FFA22D5}" type="CELLRANGE">
+                    <a:fld id="{938D8527-0FB5-4AB3-B150-638A6001AF85}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
@@ -625,7 +705,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{403A6CDC-1C0F-4070-885A-72815F3F10D6}" type="XVALUE">
+                    <a:fld id="{3EF020E0-A3F5-4031-8485-A9529A4C4206}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ X]</a:t>
@@ -634,7 +714,63 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{E7709BD0-4D20-4DB1-85DA-2BA8E1FEA40F}" type="YVALUE">
+                    <a:fld id="{B7A1D89B-118B-4AB3-93BA-5689360ECD86}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[ЗНАЧЕНИЕ Y]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-D053-4948-83D8-A20BD73A4D17}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.28523608785491555"/>
+                  <c:y val="-7.8976203620303914E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{65ED7E33-EE88-477A-8F6C-0BA0C25E042F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>; </a:t>
+                    </a:r>
+                    <a:fld id="{15B98EE8-81CC-4C2C-A915-0EF4C1B02CA9}" type="XVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[ЗНАЧЕНИЕ X]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>; </a:t>
+                    </a:r>
+                    <a:fld id="{3EAEB827-0EA7-4D4A-845D-584A4A2F091B}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ Y]</a:t>
@@ -653,64 +789,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.21876249916706325"/>
-                      <c:h val="9.782558609985996E-2"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-D053-4948-83D8-A20BD73A4D17}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{15BF9C03-323E-4249-A6E0-A02996393F48}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>; </a:t>
-                    </a:r>
-                    <a:fld id="{B43774F5-FE15-4444-BAFF-462D9E2E1BBB}" type="XVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[ЗНАЧЕНИЕ X]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>; </a:t>
-                    </a:r>
-                    <a:fld id="{62A02D4E-6E35-47EB-B51A-1348D1944ABA}" type="YVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[ЗНАЧЕНИЕ Y]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.27179408592828935"/>
-                      <c:h val="9.782558609985996E-2"/>
+                      <c:w val="0.25158014631159442"/>
+                      <c:h val="9.5350553505535035E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
@@ -725,8 +805,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.1770536121543007E-2"/>
-                  <c:y val="0.12030072339098374"/>
+                  <c:x val="-0.13590729340882288"/>
+                  <c:y val="-9.0676385492331091E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -734,7 +814,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8BFD6C4E-60B5-44AB-88B9-12277EC89441}" type="CELLRANGE">
+                    <a:fld id="{AD90E01A-B112-4392-B752-CD41765E8ED8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
@@ -743,7 +823,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{2804FFD8-034D-47CE-AA61-73B1A490C702}" type="XVALUE">
+                    <a:fld id="{14E99DCF-7C85-4014-AA25-E27BFBF9B975}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ X]</a:t>
@@ -752,7 +832,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{186E7224-9F3C-45E8-8071-81E99DD2EBA2}" type="YVALUE">
+                    <a:fld id="{65AA55AF-F3F4-477B-9E5D-580695C3BAD9}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ Y]</a:t>
@@ -779,12 +859,18 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.22415878263533129"/>
+                  <c:y val="-8.4826296105729129E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{898F0DBC-7ECC-486F-ACBF-7E50E98F2B3E}" type="CELLRANGE">
+                    <a:fld id="{8F7771F8-A893-426F-ACC0-77238EFDE358}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
@@ -793,7 +879,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{84B5AF0A-EDB2-493D-AEAD-17C71FF457DC}" type="XVALUE">
+                    <a:fld id="{C28F945C-BC62-49C5-B4F8-A9105C996645}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ X]</a:t>
@@ -802,7 +888,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{52AE275B-614D-46DB-91C1-4F2428BF872F}" type="YVALUE">
+                    <a:fld id="{18C02BF3-907A-45E7-BC38-5F657FB741FA}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ Y]</a:t>
@@ -820,7 +906,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -830,100 +915,44 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.3639112133904166E-2"/>
+                  <c:y val="-7.5781270883575003E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                    <a:noAutofit/>
-                  </a:bodyPr>
+                  <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="dk1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:fld id="{30A63480-121A-489A-AAC6-D74FC54BE948}" type="CELLRANGE">
+                    <a:fld id="{C453D4A1-FB81-405F-B305-A356D60A980E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
-                      <a:pPr>
-                        <a:defRPr sz="1050"/>
-                      </a:pPr>
+                      <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                  </a:p>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="1050"/>
-                    </a:pPr>
-                    <a:fld id="{9D890A9F-071F-4E9D-9815-56F8F852AE2E}" type="XVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr>
-                        <a:defRPr sz="1050"/>
-                      </a:pPr>
+                    <a:fld id="{1162C498-7F8A-4DD0-AF46-2FC866078EA1}" type="XVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ X]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{0D71F608-52E4-4ED7-A103-1C1C88134CAC}" type="YVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr>
-                        <a:defRPr sz="1050"/>
-                      </a:pPr>
+                    <a:fld id="{0640FE0F-E263-4B64-BD3A-CA068ACB7AA1}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ Y]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:spPr>
-                <a:solidFill>
-                  <a:sysClr val="window" lastClr="FFFFFF"/>
-                </a:solidFill>
-                <a:ln>
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="25000"/>
-                      <a:lumOff val="75000"/>
-                    </a:sysClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:noAutofit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="ru-RU"/>
-                </a:p>
-              </c:txPr>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="1"/>
@@ -932,19 +961,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <a:prstGeom prst="wedgeRectCallout">
-                      <a:avLst/>
-                    </a:prstGeom>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                  </c15:spPr>
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.2481544320453804"/>
-                      <c:h val="9.9509537739734102E-2"/>
+                      <c:w val="0.22041141692446958"/>
+                      <c:h val="9.5350553505535035E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
@@ -956,32 +976,20 @@
               </c:extLst>
             </c:dLbl>
             <c:spPr>
-              <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="25000"/>
-                    <a:lumOff val="75000"/>
-                  </a:sysClr>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:srgbClr val="002060"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1000,76 +1008,80 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <a:prstGeom prst="wedgeRectCallout">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c15:spPr>
                 <c15:showDataLabelsRange val="1"/>
-                <c15:showLeaderLines val="0"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист2!$B$3:$B$9</c:f>
+              <c:f>Лист2!$B$14:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.91</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.89</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.89</c:v>
+                  <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.92</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9</c:v>
+                  <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.88</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист2!$C$3:$C$9</c:f>
+              <c:f>Лист2!$C$14:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>0,00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.89454999999999996</c:v>
+                  <c:v>0.90839999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91215999999999997</c:v>
+                  <c:v>0.87949999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88753000000000004</c:v>
+                  <c:v>0.87939999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91913999999999996</c:v>
+                  <c:v>0.91180000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91742000000000001</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.90156999999999998</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.92256000000000005</c:v>
+                  <c:v>0.91659999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1150,29 +1162,20 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:srgbClr val="002060"/>
                     </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>F1-score</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RECALL</a:t>
                 </a:r>
-                <a:endParaRPr lang="ru-RU" sz="1400">
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:endParaRPr>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1189,16 +1192,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:srgbClr val="002060"/>
                   </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="ru-RU"/>
@@ -1213,9 +1213,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1227,12 +1227,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="002060"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1274,44 +1271,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:srgbClr val="002060"/>
                     </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1400">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>Перекрестная</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cross-validation</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" sz="1400" baseline="0">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t> проверка</a:t>
-                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU" sz="1400">
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:endParaRPr>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1328,16 +1307,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:srgbClr val="002060"/>
                   </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="ru-RU"/>
@@ -1352,9 +1328,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1366,12 +1342,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="002060"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1406,7 +1379,10 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="accent1">
+        <a:lumMod val="20000"/>
+        <a:lumOff val="80000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -1424,7 +1400,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ru-RU"/>
     </a:p>
@@ -1478,7 +1458,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1489,7 +1469,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1505,25 +1485,25 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -1535,7 +1515,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1543,11 +1523,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -1579,35 +1559,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1619,22 +1609,26 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -1664,15 +1658,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1682,7 +1674,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1691,14 +1683,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1707,17 +1698,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1726,10 +1716,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -1745,21 +1735,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1778,17 +1762,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1797,17 +1780,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1816,17 +1798,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1847,7 +1828,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -1855,7 +1836,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1868,6 +1849,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1875,10 +1867,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -1899,7 +1891,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1908,14 +1900,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1929,27 +1920,26 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1966,9 +1956,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1981,14 +1971,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1997,16 +1981,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>91280</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>91279</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>563563</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>31751</xdr:rowOff>
+      <xdr:colOff>492125</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2475,10 +2459,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F2F150-B1E9-4DE8-A328-DEEB4FD00FEE}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2486,132 +2470,202 @@
     <col min="1" max="1" width="25.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.54296875" customWidth="1"/>
     <col min="3" max="3" width="18.81640625" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:3" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="17" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="20" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="B3" s="21">
+        <v>0.91</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.89454999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="9">
-        <v>0.91</v>
-      </c>
-      <c r="C3" s="10">
-        <v>0.89454999999999996</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="B4" s="21">
+        <v>0.89</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.91215999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="20" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="B5" s="22">
+        <v>0.89</v>
+      </c>
+      <c r="C5" s="23">
+        <v>0.88753000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.91913999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="9">
-        <v>0.89</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0.91215999999999997</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="B7" s="22">
+        <v>0.92</v>
+      </c>
+      <c r="C7" s="23">
+        <v>0.91742000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.90156999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="24">
+        <v>0.88</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.92256000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+    </row>
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="13">
+        <v>0.99</v>
+      </c>
+      <c r="C14" s="14">
+        <v>0.90839999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="C15" s="14">
+        <v>0.87949999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="13">
+        <v>0.94</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0.87939999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="12" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="B17" s="13">
+        <v>0.99</v>
+      </c>
+      <c r="C17" s="14">
+        <v>0.91180000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="13">
+        <v>0.96</v>
+      </c>
+      <c r="C18" s="14">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="9">
-        <v>0.89</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0.88753000000000004</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="B19" s="13">
+        <v>0.94</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="12" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="C6" s="10">
-        <v>0.91913999999999996</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="9">
-        <v>0.92</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0.91742000000000001</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="C8" s="10">
-        <v>0.90156999999999998</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="9">
-        <v>0.88</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0.92256000000000005</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>51</v>
+      <c r="B20" s="13">
+        <v>1</v>
+      </c>
+      <c r="C20" s="14">
+        <v>0.91659999999999997</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
